--- a/docss/trend/netherlands/E_neuron.xlsx
+++ b/docss/trend/netherlands/E_neuron.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\netherlands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Desktop\revisado\netherlands\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="A1:F21"/>
+      <selection activeCell="B1" sqref="B1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,216 +1599,188 @@
       <c r="D1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>2002</v>
       </c>
       <c r="B2" s="6">
-        <v>1.6537724961526692</v>
+        <v>1.6539999999999999</v>
       </c>
       <c r="C2" s="6">
-        <v>1.93704301584512</v>
+        <v>1.9370000000000001</v>
       </c>
       <c r="D2" s="6">
-        <v>1.4058811105787754</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+        <v>1.4059999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2003</v>
       </c>
       <c r="B3" s="6">
-        <v>1.7301441058516502</v>
+        <v>1.73</v>
       </c>
       <c r="C3" s="6">
-        <v>2.1338804233819246</v>
+        <v>2.1339999999999999</v>
       </c>
       <c r="D3" s="6">
-        <v>1.4071921342983842</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+        <v>1.407</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2004</v>
       </c>
       <c r="B4" s="6">
-        <v>1.8733352739363909</v>
+        <v>1.873</v>
       </c>
       <c r="C4" s="6">
-        <v>2.3685837956145406</v>
+        <v>2.3690000000000002</v>
       </c>
       <c r="D4" s="6">
-        <v>1.4906050395220518</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+        <v>1.4910000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2005</v>
       </c>
       <c r="B5" s="6">
-        <v>1.9805656904354692</v>
+        <v>1.9810000000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>2.4227615799754858</v>
+        <v>2.423</v>
       </c>
       <c r="D5" s="6">
-        <v>1.5676751406863332</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
+        <v>1.5680000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2006</v>
       </c>
       <c r="B6" s="6">
-        <v>1.6839358480647206</v>
+        <v>1.6839999999999999</v>
       </c>
       <c r="C6" s="6">
-        <v>2.0823655743151903</v>
+        <v>2.0819999999999999</v>
       </c>
       <c r="D6" s="6">
-        <v>1.3545152600854635</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+        <v>1.355</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>2007</v>
       </c>
       <c r="B7" s="6">
-        <v>1.9895193986594677</v>
+        <v>1.99</v>
       </c>
       <c r="C7" s="6">
-        <v>2.265687009319663</v>
+        <v>2.266</v>
       </c>
       <c r="D7" s="6">
-        <v>1.7678503934293985</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+        <v>1.768</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>2008</v>
       </c>
       <c r="B8" s="6">
-        <v>1.8585664350539446</v>
+        <v>1.859</v>
       </c>
       <c r="C8" s="6">
-        <v>2.4105931716039777</v>
+        <v>2.411</v>
       </c>
       <c r="D8" s="6">
-        <v>1.3862046906724572</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>1.3859999999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>2009</v>
       </c>
       <c r="B9" s="6">
-        <v>1.7398112472146749</v>
+        <v>1.74</v>
       </c>
       <c r="C9" s="6">
-        <v>1.9115875884890556</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="D9" s="6">
-        <v>1.64148273691535</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+        <v>1.641</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>2010</v>
       </c>
       <c r="B10" s="6">
-        <v>1.9057848928496242</v>
+        <v>1.9059999999999999</v>
       </c>
       <c r="C10" s="6">
-        <v>2.3330305414274335</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="D10" s="6">
-        <v>1.5126127228140831</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+        <v>1.5129999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2011</v>
       </c>
       <c r="B11" s="6">
-        <v>1.8914115196093917</v>
+        <v>1.891</v>
       </c>
       <c r="C11" s="6">
-        <v>2.0455044722184539</v>
+        <v>2.0459999999999998</v>
       </c>
       <c r="D11" s="6">
-        <v>1.7637380342930555</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+        <v>1.764</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2012</v>
       </c>
       <c r="B12" s="6">
-        <v>2.2632224932312965</v>
+        <v>2.2629999999999999</v>
       </c>
       <c r="C12" s="6">
-        <v>2.725845780223608</v>
+        <v>2.726</v>
       </c>
       <c r="D12" s="6">
-        <v>1.8727486487478018</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+        <v>1.873</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>2013</v>
       </c>
       <c r="B13" s="6">
-        <v>2.27507886569947</v>
+        <v>2.2749999999999999</v>
       </c>
       <c r="C13" s="6">
-        <v>2.9693252258002758</v>
+        <v>2.9689999999999999</v>
       </c>
       <c r="D13" s="6">
-        <v>1.660881825722754</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>1.661</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>2014</v>
       </c>
       <c r="B14" s="6">
-        <v>1.7111416514962912</v>
+        <v>1.7110000000000001</v>
       </c>
       <c r="C14" s="6">
-        <v>2.0230795964598656</v>
+        <v>2.0230000000000001</v>
       </c>
       <c r="D14" s="6">
-        <v>1.4223078656941652</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+        <v>1.4219999999999999</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
